--- a/SolarPanelTiltAngleCalculator.xlsx
+++ b/SolarPanelTiltAngleCalculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Latour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\SolarPanelTiltAngleCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4927EAFD-429C-4F29-BDCF-DC135B979E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB476124-46AC-4D56-AFD3-060D7E1C6C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4120C1F8-2EC7-4B2B-A0F2-B3A7B549E858}"/>
   </bookViews>
@@ -1157,6 +1157,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76943AB-F7D8-4899-B57C-A13D5DF5C65D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:CC508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -65094,7 +65097,7 @@
     <hyperlink ref="A506" r:id="rId2" xr:uid="{802283B6-8092-46F6-B584-B86C301ABD73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>